--- a/excel_reports/2025-08-15.xlsx
+++ b/excel_reports/2025-08-15.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -66,11 +70,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,13 +495,13 @@
       </c>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n">
-        <v>7424</v>
+        <v>47710</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.67</v>
+        <v>1036.47</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>10.39</v>
+        <v>1039.31</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +512,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>douyin</t>
+          <t>UC</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -517,13 +521,13 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>7073</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.93</v>
+        <v>4.97</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.64</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="5">
@@ -534,74 +538,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>UC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A3KUVB2428008483</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>108</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
           <t>douyin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>20400</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>douyin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>9a5dbfaf</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2907</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D8" t="n">
+        <v>13455</v>
+      </c>
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>douyin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A3KUVB2428008483</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4166</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>jinritoutiao</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>统计</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>351</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.75</v>
+      <c r="F8" t="n">
+        <v>7.35</v>
       </c>
     </row>
     <row r="9">
@@ -612,55 +616,240 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jinritoutiao</t>
+          <t>douyin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A3KUVB2428008483</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6945</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>kuaishou</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>3102</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>kuaishou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>9a5dbfaf</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>198</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>jinritoutiao</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="D12" t="n">
+        <v>777</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>kuaishou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>A3KUVB2428008483</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>153</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.23</v>
+      <c r="D13" t="n">
+        <v>2325</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>wukong</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>wukong</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9a5dbfaf</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>xigua</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>24100</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>xigua</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9a5dbfaf</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>61</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>xigua</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A3KUVB2428008483</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>24039</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C8"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C18"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
